--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>41.249948817842</v>
+        <v>15.80143133333333</v>
       </c>
       <c r="H2">
-        <v>41.249948817842</v>
+        <v>47.404294</v>
       </c>
       <c r="I2">
-        <v>0.538741244792739</v>
+        <v>0.1698881129360889</v>
       </c>
       <c r="J2">
-        <v>0.538741244792739</v>
+        <v>0.1698881129360889</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>3648.333204747007</v>
+        <v>1563.499864944285</v>
       </c>
       <c r="R2">
-        <v>3648.333204747007</v>
+        <v>14071.49878449857</v>
       </c>
       <c r="S2">
-        <v>0.1050892366712274</v>
+        <v>0.03564269076636937</v>
       </c>
       <c r="T2">
-        <v>0.1050892366712274</v>
+        <v>0.03564269076636938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>41.249948817842</v>
+        <v>15.80143133333333</v>
       </c>
       <c r="H3">
-        <v>41.249948817842</v>
+        <v>47.404294</v>
       </c>
       <c r="I3">
-        <v>0.538741244792739</v>
+        <v>0.1698881129360889</v>
       </c>
       <c r="J3">
-        <v>0.538741244792739</v>
+        <v>0.1698881129360889</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>6717.037046151705</v>
+        <v>2575.731839791984</v>
       </c>
       <c r="R3">
-        <v>6717.037046151705</v>
+        <v>23181.58655812786</v>
       </c>
       <c r="S3">
-        <v>0.193482408611685</v>
+        <v>0.05871827399618535</v>
       </c>
       <c r="T3">
-        <v>0.193482408611685</v>
+        <v>0.05871827399618536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>41.249948817842</v>
+        <v>15.80143133333333</v>
       </c>
       <c r="H4">
-        <v>41.249948817842</v>
+        <v>47.404294</v>
       </c>
       <c r="I4">
-        <v>0.538741244792739</v>
+        <v>0.1698881129360889</v>
       </c>
       <c r="J4">
-        <v>0.538741244792739</v>
+        <v>0.1698881129360889</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>2550.093967563139</v>
+        <v>1033.352088960676</v>
       </c>
       <c r="R4">
-        <v>2550.093967563139</v>
+        <v>9300.168800646081</v>
       </c>
       <c r="S4">
-        <v>0.07345475685784997</v>
+        <v>0.02355705285648979</v>
       </c>
       <c r="T4">
-        <v>0.07345475685784997</v>
+        <v>0.02355705285648979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>41.249948817842</v>
+        <v>15.80143133333333</v>
       </c>
       <c r="H5">
-        <v>41.249948817842</v>
+        <v>47.404294</v>
       </c>
       <c r="I5">
-        <v>0.538741244792739</v>
+        <v>0.1698881129360889</v>
       </c>
       <c r="J5">
-        <v>0.538741244792739</v>
+        <v>0.1698881129360889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>5787.760149730996</v>
+        <v>2279.716689796296</v>
       </c>
       <c r="R5">
-        <v>5787.760149730996</v>
+        <v>20517.45020816666</v>
       </c>
       <c r="S5">
-        <v>0.1667148426519767</v>
+        <v>0.05197009531704441</v>
       </c>
       <c r="T5">
-        <v>0.1667148426519767</v>
+        <v>0.05197009531704441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.3173257625763</v>
+        <v>41.443863</v>
       </c>
       <c r="H6">
-        <v>35.3173257625763</v>
+        <v>124.331589</v>
       </c>
       <c r="I6">
-        <v>0.461258755207261</v>
+        <v>0.4455811330837538</v>
       </c>
       <c r="J6">
-        <v>0.461258755207261</v>
+        <v>0.4455811330837538</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>3123.625021971963</v>
+        <v>4100.734473754812</v>
       </c>
       <c r="R6">
-        <v>3123.625021971963</v>
+        <v>36906.61026379331</v>
       </c>
       <c r="S6">
-        <v>0.08997516147348238</v>
+        <v>0.09348335362231808</v>
       </c>
       <c r="T6">
-        <v>0.08997516147348238</v>
+        <v>0.09348335362231809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.3173257625763</v>
+        <v>41.443863</v>
       </c>
       <c r="H7">
-        <v>35.3173257625763</v>
+        <v>124.331589</v>
       </c>
       <c r="I7">
-        <v>0.461258755207261</v>
+        <v>0.4455811330837538</v>
       </c>
       <c r="J7">
-        <v>0.461258755207261</v>
+        <v>0.4455811330837538</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>5750.983754327084</v>
+        <v>6755.608099115047</v>
       </c>
       <c r="R7">
-        <v>5750.983754327084</v>
+        <v>60800.47289203542</v>
       </c>
       <c r="S7">
-        <v>0.1656555086757139</v>
+        <v>0.1540058018643439</v>
       </c>
       <c r="T7">
-        <v>0.1656555086757139</v>
+        <v>0.1540058018643439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.3173257625763</v>
+        <v>41.443863</v>
       </c>
       <c r="H8">
-        <v>35.3173257625763</v>
+        <v>124.331589</v>
       </c>
       <c r="I8">
-        <v>0.461258755207261</v>
+        <v>0.4455811330837538</v>
       </c>
       <c r="J8">
-        <v>0.461258755207261</v>
+        <v>0.4455811330837538</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>2183.33602728382</v>
+        <v>2710.267285426721</v>
       </c>
       <c r="R8">
-        <v>2183.33602728382</v>
+        <v>24392.40556884048</v>
       </c>
       <c r="S8">
-        <v>0.06289039504547053</v>
+        <v>0.06178524278421622</v>
       </c>
       <c r="T8">
-        <v>0.06289039504547053</v>
+        <v>0.06178524278421623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>41.443863</v>
+      </c>
+      <c r="H9">
+        <v>124.331589</v>
+      </c>
+      <c r="I9">
+        <v>0.4455811330837538</v>
+      </c>
+      <c r="J9">
+        <v>0.4455811330837538</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N9">
+        <v>432.81839</v>
+      </c>
+      <c r="O9">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P9">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q9">
+        <v>5979.22201968019</v>
+      </c>
+      <c r="R9">
+        <v>53812.99817712171</v>
+      </c>
+      <c r="S9">
+        <v>0.1363067348128756</v>
+      </c>
+      <c r="T9">
+        <v>0.1363067348128756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01612333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.04837</v>
+      </c>
+      <c r="I10">
+        <v>0.0001733490224054096</v>
+      </c>
+      <c r="J10">
+        <v>0.0001733490224054096</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>98.946724</v>
+      </c>
+      <c r="N10">
+        <v>296.840172</v>
+      </c>
+      <c r="O10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q10">
+        <v>1.595351013293333</v>
+      </c>
+      <c r="R10">
+        <v>14.35815911964</v>
+      </c>
+      <c r="S10">
+        <v>3.636879292768892E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.636879292768892E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01612333333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.04837</v>
+      </c>
+      <c r="I11">
+        <v>0.0001733490224054096</v>
+      </c>
+      <c r="J11">
+        <v>0.0001733490224054096</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N11">
+        <v>489.018707</v>
+      </c>
+      <c r="O11">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P11">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q11">
+        <v>2.628203873065555</v>
+      </c>
+      <c r="R11">
+        <v>23.65383485759</v>
+      </c>
+      <c r="S11">
+        <v>5.991446498908908E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.991446498908909E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01612333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.04837</v>
+      </c>
+      <c r="I12">
+        <v>0.0001733490224054096</v>
+      </c>
+      <c r="J12">
+        <v>0.0001733490224054096</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N12">
+        <v>196.18832</v>
+      </c>
+      <c r="O12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q12">
+        <v>1.054403226488889</v>
+      </c>
+      <c r="R12">
+        <v>9.489629038400002</v>
+      </c>
+      <c r="S12">
+        <v>2.403695004229809E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.403695004229809E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01612333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.04837</v>
+      </c>
+      <c r="I13">
+        <v>0.0001733490224054096</v>
+      </c>
+      <c r="J13">
+        <v>0.0001733490224054096</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N13">
+        <v>432.81839</v>
+      </c>
+      <c r="O13">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P13">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q13">
+        <v>2.326158391588889</v>
+      </c>
+      <c r="R13">
+        <v>20.9354255243</v>
+      </c>
+      <c r="S13">
+        <v>5.302881444633345E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.302881444633346E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>35.74939433333333</v>
+      </c>
+      <c r="H14">
+        <v>107.248183</v>
+      </c>
+      <c r="I14">
+        <v>0.3843574049577519</v>
+      </c>
+      <c r="J14">
+        <v>0.3843574049577519</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>98.946724</v>
+      </c>
+      <c r="N14">
+        <v>296.840172</v>
+      </c>
+      <c r="O14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q14">
+        <v>3537.285454267497</v>
+      </c>
+      <c r="R14">
+        <v>31835.56908840747</v>
+      </c>
+      <c r="S14">
+        <v>0.08063855611738446</v>
+      </c>
+      <c r="T14">
+        <v>0.08063855611738448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>35.3173257625763</v>
-      </c>
-      <c r="H9">
-        <v>35.3173257625763</v>
-      </c>
-      <c r="I9">
-        <v>0.461258755207261</v>
-      </c>
-      <c r="J9">
-        <v>0.461258755207261</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="N9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="O9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="P9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="Q9">
-        <v>4955.35670956502</v>
-      </c>
-      <c r="R9">
-        <v>4955.35670956502</v>
-      </c>
-      <c r="S9">
-        <v>0.1427376900125943</v>
-      </c>
-      <c r="T9">
-        <v>0.1427376900125943</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>35.74939433333333</v>
+      </c>
+      <c r="H15">
+        <v>107.248183</v>
+      </c>
+      <c r="I15">
+        <v>0.3843574049577519</v>
+      </c>
+      <c r="J15">
+        <v>0.3843574049577519</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N15">
+        <v>489.018707</v>
+      </c>
+      <c r="O15">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P15">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q15">
+        <v>5827.374197639931</v>
+      </c>
+      <c r="R15">
+        <v>52446.36777875938</v>
+      </c>
+      <c r="S15">
+        <v>0.1328451003824047</v>
+      </c>
+      <c r="T15">
+        <v>0.1328451003824048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>35.74939433333333</v>
+      </c>
+      <c r="H16">
+        <v>107.248183</v>
+      </c>
+      <c r="I16">
+        <v>0.3843574049577519</v>
+      </c>
+      <c r="J16">
+        <v>0.3843574049577519</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N16">
+        <v>196.18832</v>
+      </c>
+      <c r="O16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q16">
+        <v>2337.871205091396</v>
+      </c>
+      <c r="R16">
+        <v>21040.84084582256</v>
+      </c>
+      <c r="S16">
+        <v>0.05329582834191116</v>
+      </c>
+      <c r="T16">
+        <v>0.05329582834191117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>35.74939433333333</v>
+      </c>
+      <c r="H17">
+        <v>107.248183</v>
+      </c>
+      <c r="I17">
+        <v>0.3843574049577519</v>
+      </c>
+      <c r="J17">
+        <v>0.3843574049577519</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N17">
+        <v>432.81839</v>
+      </c>
+      <c r="O17">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P17">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q17">
+        <v>5157.665099609485</v>
+      </c>
+      <c r="R17">
+        <v>46418.98589648536</v>
+      </c>
+      <c r="S17">
+        <v>0.1175779201160515</v>
+      </c>
+      <c r="T17">
+        <v>0.1175779201160515</v>
       </c>
     </row>
   </sheetData>
